--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>2/10,11/2023</t>
+  </si>
+  <si>
+    <t>4/6-8/2023</t>
   </si>
 </sst>
 </file>
@@ -681,14 +684,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -698,9 +704,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,7 +1234,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1277,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1401,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1467,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1530,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1628,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1687,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1752,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1795,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1870,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2056,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2122,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2180,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2246,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2302,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2377,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2420,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2486,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2542,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,9 +3018,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A6" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,14 +3050,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3066,14 +3069,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3087,16 +3090,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3129,18 +3132,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3187,7 +3190,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3197,7 +3200,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>73.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4493,15 +4496,23 @@
       <c r="K73" s="21"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="41"/>
+      <c r="A74" s="42">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="41">
+        <v>5</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="41"/>
       <c r="I74" s="10"/>
@@ -4509,7 +4520,9 @@
       <c r="K74" s="21"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
       <c r="D75" s="41"/>
@@ -4525,15 +4538,19 @@
       <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="42">
+        <v>44927</v>
+      </c>
       <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="10"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="41"/>
       <c r="I76" s="10"/>
@@ -4541,15 +4558,19 @@
       <c r="K76" s="21"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="42">
+        <v>44958</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="41"/>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="10"/>
@@ -4557,15 +4578,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
@@ -4575,13 +4600,15 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -5470,17 +5497,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5518,7 +5545,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,14 +5575,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5567,14 +5594,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5588,16 +5615,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5630,18 +5657,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5688,7 +5715,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.875</v>
+        <v>67.875</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -6980,10 +7007,16 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="42">
+        <v>44986</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="41"/>
+      <c r="D67" s="41">
+        <v>1</v>
+      </c>
       <c r="E67" s="10"/>
       <c r="F67" s="21"/>
       <c r="G67" s="14" t="str">
@@ -6993,13 +7026,19 @@
       <c r="H67" s="41"/>
       <c r="I67" s="10"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="K67" s="51">
+        <v>45000</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
-      <c r="B68" s="21"/>
+      <c r="B68" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="C68" s="14"/>
-      <c r="D68" s="41"/>
+      <c r="D68" s="41">
+        <v>1</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="21"/>
       <c r="G68" s="14" t="str">
@@ -7009,13 +7048,19 @@
       <c r="H68" s="41"/>
       <c r="I68" s="10"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
+      <c r="K68" s="51">
+        <v>45012</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
-      <c r="B69" s="21"/>
+      <c r="B69" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C69" s="14"/>
-      <c r="D69" s="41"/>
+      <c r="D69" s="41">
+        <v>3</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="21"/>
       <c r="G69" s="14" t="str">
@@ -7025,7 +7070,9 @@
       <c r="H69" s="41"/>
       <c r="I69" s="10"/>
       <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
+      <c r="K69" s="21" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -684,17 +684,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -704,6 +701,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,7 +1234,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1467,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1628,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1687,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1752,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1870,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2056,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2122,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2180,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2246,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2302,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2420,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2486,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2542,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,8 +3017,8 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
@@ -3050,14 +3050,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3069,14 +3069,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3090,16 +3090,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3132,18 +3132,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5497,17 +5497,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5542,10 +5542,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A50" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A53" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,14 +5575,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5594,14 +5594,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5615,16 +5615,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5657,18 +5657,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.25</v>
+        <v>54.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -7075,8 +7075,12 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="42">
+        <v>45017</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="C70" s="14"/>
       <c r="D70" s="41"/>
       <c r="E70" s="10"/>
@@ -7085,14 +7089,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="41"/>
+      <c r="H70" s="41">
+        <v>1</v>
+      </c>
       <c r="I70" s="10"/>
       <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
+      <c r="K70" s="51">
+        <v>45017</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
-      <c r="B71" s="21"/>
+      <c r="B71" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C71" s="14"/>
       <c r="D71" s="41"/>
       <c r="E71" s="10"/>
@@ -7104,7 +7114,9 @@
       <c r="H71" s="41"/>
       <c r="I71" s="10"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="51">
+        <v>45033</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -684,14 +684,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -701,9 +704,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,7 +1234,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1401,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1467,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1628,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1687,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1752,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1870,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2056,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2122,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2180,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2246,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2302,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2420,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2486,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2542,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,10 +3017,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,14 +3050,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3069,14 +3069,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3090,16 +3090,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3132,18 +3132,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,9 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
       <c r="C79" s="14">
         <v>1.25</v>
@@ -5497,17 +5499,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5542,10 +5544,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A53" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,14 +5577,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5594,14 +5596,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5615,16 +5617,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5657,18 +5659,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5725,7 +5727,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.25</v>
+        <v>53.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -7120,7 +7122,9 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
-      <c r="B72" s="21"/>
+      <c r="B72" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="C72" s="14"/>
       <c r="D72" s="41"/>
       <c r="E72" s="10"/>
@@ -7129,10 +7133,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="41"/>
+      <c r="H72" s="41">
+        <v>1</v>
+      </c>
       <c r="I72" s="10"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
+      <c r="K72" s="51">
+        <v>45027</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>4/6-8/2023</t>
+  </si>
+  <si>
+    <t>4/21,22/2023</t>
   </si>
 </sst>
 </file>
@@ -684,17 +687,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -704,6 +704,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,7 +1237,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1280,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1404,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1470,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1533,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1631,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1690,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1755,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1798,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1873,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2059,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2125,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2183,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2249,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2305,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2380,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2423,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2489,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2545,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,14 +3053,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3069,14 +3072,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3090,16 +3093,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3132,18 +3135,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5499,17 +5502,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5545,9 +5548,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A53" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5577,14 +5580,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5596,14 +5599,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5617,16 +5620,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5659,18 +5662,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5717,7 +5720,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.875</v>
+        <v>66.875</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5727,7 +5730,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.25</v>
+        <v>50.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -7144,7 +7147,9 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
-      <c r="B73" s="21"/>
+      <c r="B73" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="C73" s="14"/>
       <c r="D73" s="41"/>
       <c r="E73" s="10"/>
@@ -7153,14 +7158,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="41"/>
+      <c r="H73" s="41">
+        <v>1</v>
+      </c>
       <c r="I73" s="10"/>
       <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
+      <c r="K73" s="51">
+        <v>45029</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
-      <c r="B74" s="21"/>
+      <c r="B74" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="C74" s="14"/>
       <c r="D74" s="41"/>
       <c r="E74" s="10"/>
@@ -7169,16 +7180,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H74" s="41"/>
+      <c r="H74" s="41">
+        <v>2</v>
+      </c>
       <c r="I74" s="10"/>
       <c r="J74" s="12"/>
-      <c r="K74" s="21"/>
+      <c r="K74" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
-      <c r="B75" s="21"/>
+      <c r="B75" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="C75" s="14"/>
-      <c r="D75" s="41"/>
+      <c r="D75" s="41">
+        <v>1</v>
+      </c>
       <c r="E75" s="10"/>
       <c r="F75" s="21"/>
       <c r="G75" s="14" t="str">
@@ -7188,7 +7207,9 @@
       <c r="H75" s="41"/>
       <c r="I75" s="10"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="51">
+        <v>45041</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>4/21,22/2023</t>
+  </si>
+  <si>
+    <t>5/10,15/2023</t>
   </si>
 </sst>
 </file>
@@ -687,14 +690,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -704,9 +710,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,7 +1240,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1283,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1347,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1407,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1473,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1536,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1634,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1693,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +1758,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1801,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1876,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2062,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2128,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2186,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2252,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2308,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2383,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2426,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2492,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2548,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,14 +3056,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3072,14 +3075,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3093,16 +3096,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3135,18 +3138,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5502,17 +5505,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5550,7 +5553,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5580,14 +5583,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5599,14 +5602,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5620,16 +5623,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5662,18 +5665,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5720,7 +5723,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.875</v>
+        <v>64.875</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -7213,9 +7216,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
-      <c r="B76" s="21"/>
+      <c r="B76" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C76" s="14"/>
-      <c r="D76" s="41"/>
+      <c r="D76" s="41">
+        <v>2</v>
+      </c>
       <c r="E76" s="10"/>
       <c r="F76" s="21"/>
       <c r="G76" s="14" t="str">
@@ -7225,7 +7232,9 @@
       <c r="H76" s="41"/>
       <c r="I76" s="10"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>5/10,15/2023</t>
+  </si>
+  <si>
+    <t>5/4,6/2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>5/18,20,24,25,27,30/2023</t>
+  </si>
+  <si>
+    <t>5/11,12/2023</t>
   </si>
 </sst>
 </file>
@@ -690,17 +702,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,6 +719,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,7 +1252,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1295,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1359,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1419,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1485,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1548,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1646,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1705,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1770,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1813,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1888,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2074,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2140,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2198,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2264,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2320,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2395,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2438,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2504,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2560,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,14 +3068,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3075,14 +3087,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3096,16 +3108,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3138,18 +3150,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5505,17 +5517,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5553,7 +5565,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,14 +5595,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5602,14 +5614,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5623,16 +5635,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5665,18 +5677,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5723,7 +5735,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>64.875</v>
+        <v>58.875</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5733,7 +5745,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.25</v>
+        <v>45.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -7237,8 +7249,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="42">
+        <v>45047</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="C77" s="14"/>
       <c r="D77" s="41"/>
       <c r="E77" s="10"/>
@@ -7247,16 +7263,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="41"/>
+      <c r="H77" s="41">
+        <v>2</v>
+      </c>
       <c r="I77" s="10"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
-      <c r="B78" s="21"/>
+      <c r="B78" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="C78" s="14"/>
-      <c r="D78" s="41"/>
+      <c r="D78" s="41">
+        <v>6</v>
+      </c>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
       <c r="G78" s="14" t="str">
@@ -7266,11 +7290,15 @@
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
       <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="K78" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
-      <c r="B79" s="21"/>
+      <c r="B79" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="C79" s="14"/>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
@@ -7279,14 +7307,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="41"/>
+      <c r="H79" s="41">
+        <v>2</v>
+      </c>
       <c r="I79" s="10"/>
       <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
+      <c r="B80" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="C80" s="14"/>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
@@ -7295,10 +7329,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="41"/>
+      <c r="H80" s="41">
+        <v>1</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="51">
+        <v>45062</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>6/7,8,10,12,14/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/21,22,29,29/2023</t>
   </si>
 </sst>
 </file>
@@ -694,14 +700,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -711,9 +720,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,7 +1250,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1293,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1357,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1417,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1483,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1546,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1644,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1703,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1768,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1811,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1886,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2072,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2138,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2196,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2262,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2318,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2393,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2436,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2502,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2558,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3033,7 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
@@ -3060,14 +3066,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3078,14 +3084,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3098,16 +3104,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3133,18 +3139,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5504,17 +5510,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5549,7 +5555,7 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
@@ -5582,14 +5588,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5600,14 +5606,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5620,16 +5626,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5655,18 +5661,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5713,7 +5719,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.875</v>
+        <v>49.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7364,9 +7370,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>4</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -7376,7 +7386,9 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F070ED-364A-444B-9C26-6528D9C0E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE EARN'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -314,11 +315,14 @@
   <si>
     <t>6/21,22,29,29/2023</t>
   </si>
+  <si>
+    <t>7/4,6,8,12,13/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -700,17 +704,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -720,6 +721,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,7 +1254,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1297,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1421,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1487,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1550,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1648,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1707,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1772,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1815,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1890,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2076,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2142,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2200,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2266,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2322,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2397,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2440,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2506,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2562,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2641,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2654,25 +2658,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2684,25 +2688,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3009,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3019,7 +3023,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3027,34 +3031,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3066,16 +3070,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3084,16 +3088,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3104,18 +3108,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3123,7 +3127,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3136,24 +3140,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3197,7 +3201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3207,12 +3211,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3234,7 +3238,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3254,7 +3258,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3274,7 +3278,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3294,7 +3298,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3314,7 +3318,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3334,7 +3338,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3354,7 +3358,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3374,7 +3378,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3394,7 +3398,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3414,7 +3418,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3434,7 +3438,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3454,7 +3458,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3496,7 +3500,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3516,7 +3520,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3536,7 +3540,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3556,7 +3560,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3576,7 +3580,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3596,7 +3600,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3616,7 +3620,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3636,7 +3640,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3656,7 +3660,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3676,7 +3680,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3696,7 +3700,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3716,7 +3720,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3740,7 +3744,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -3758,7 +3762,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3778,7 +3782,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3798,7 +3802,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3818,7 +3822,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3838,7 +3842,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3858,7 +3862,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3878,7 +3882,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3898,7 +3902,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3918,7 +3922,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3938,7 +3942,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3958,7 +3962,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3978,7 +3982,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4002,7 +4006,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -4020,7 +4024,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4040,7 +4044,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4060,7 +4064,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4080,7 +4084,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4100,7 +4104,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4120,7 +4124,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4140,7 +4144,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4160,7 +4164,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4180,7 +4184,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4200,7 +4204,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4220,7 +4224,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4240,7 +4244,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4264,7 +4268,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>49</v>
       </c>
@@ -4282,7 +4286,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4302,7 +4306,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4322,7 +4326,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4342,7 +4346,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4362,7 +4366,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4382,7 +4386,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4402,7 +4406,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4422,7 +4426,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4442,7 +4446,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4462,7 +4466,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4482,7 +4486,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4502,7 +4506,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4526,7 +4530,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>78</v>
       </c>
@@ -4544,7 +4548,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4564,7 +4568,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4584,7 +4588,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4604,7 +4608,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4624,25 +4628,27 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -4660,7 +4666,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4676,7 +4682,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4692,7 +4698,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4708,7 +4714,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4724,7 +4730,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4740,7 +4746,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4756,7 +4762,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4772,7 +4778,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4788,7 +4794,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4804,7 +4810,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4820,7 +4826,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4836,7 +4842,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4852,7 +4858,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4868,7 +4874,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4884,7 +4890,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4900,7 +4906,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4916,7 +4922,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4932,7 +4938,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4948,7 +4954,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4964,7 +4970,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4980,7 +4986,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4996,7 +5002,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5012,7 +5018,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5028,7 +5034,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5044,7 +5050,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5060,7 +5066,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5076,7 +5082,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5092,7 +5098,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5108,7 +5114,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5124,7 +5130,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5140,7 +5146,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5156,7 +5162,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5172,7 +5178,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5188,7 +5194,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5204,7 +5210,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5220,7 +5226,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5236,7 +5242,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5252,7 +5258,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5268,7 +5274,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5284,7 +5290,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5300,7 +5306,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5316,7 +5322,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5332,7 +5338,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5348,7 +5354,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5364,7 +5370,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5380,7 +5386,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5396,7 +5402,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5412,7 +5418,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5428,7 +5434,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5444,7 +5450,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5460,7 +5466,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5476,7 +5482,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5492,7 +5498,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5510,23 +5516,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5549,34 +5555,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5588,16 +5594,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5606,16 +5612,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5626,18 +5632,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5645,7 +5651,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5658,24 +5664,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5719,7 +5725,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.875</v>
+        <v>44.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5734,7 +5740,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5756,7 +5762,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>54</v>
@@ -5824,7 +5830,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>54</v>
@@ -5892,7 +5898,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43221</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -5964,7 +5970,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -5986,7 +5992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>56</v>
@@ -6008,7 +6014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>43379</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -6078,7 +6084,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6096,7 +6102,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43466</v>
       </c>
@@ -6118,7 +6124,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -6142,7 +6148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>52</v>
@@ -6186,7 +6192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -6208,7 +6214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>54</v>
@@ -6230,7 +6236,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43586</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>54</v>
@@ -6276,7 +6282,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43617</v>
       </c>
@@ -6300,7 +6306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -6322,7 +6328,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43678</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>54</v>
@@ -6368,7 +6374,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43709</v>
       </c>
@@ -6392,7 +6398,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43739</v>
       </c>
@@ -6416,7 +6422,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>55</v>
@@ -6438,7 +6444,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43770</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
@@ -6478,7 +6484,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44166</v>
       </c>
@@ -6548,7 +6554,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -6570,7 +6576,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>48</v>
       </c>
@@ -6588,7 +6594,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44197</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44228</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -6656,7 +6662,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44287</v>
       </c>
@@ -6678,7 +6684,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44470</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>49</v>
       </c>
@@ -6718,7 +6724,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44562</v>
       </c>
@@ -6740,7 +6746,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44593</v>
       </c>
@@ -6764,7 +6770,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>55</v>
@@ -6786,7 +6792,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44805</v>
       </c>
@@ -6810,7 +6816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44835</v>
       </c>
@@ -6834,7 +6840,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -6856,7 +6862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>74</v>
@@ -6878,7 +6884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44866</v>
       </c>
@@ -6902,7 +6908,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>76</v>
@@ -6924,7 +6930,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>78</v>
       </c>
@@ -6942,7 +6948,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44927</v>
       </c>
@@ -6966,7 +6972,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -6986,7 +6992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44958</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44986</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>55</v>
@@ -7056,7 +7062,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -7078,7 +7084,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45017</v>
       </c>
@@ -7102,7 +7108,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>51</v>
@@ -7122,7 +7128,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>54</v>
@@ -7144,7 +7150,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>54</v>
@@ -7166,7 +7172,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>56</v>
@@ -7188,7 +7194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>55</v>
@@ -7210,7 +7216,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -7232,7 +7238,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45047</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>85</v>
@@ -7278,7 +7284,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>56</v>
@@ -7300,7 +7306,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>54</v>
@@ -7322,7 +7328,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>88</v>
@@ -7344,7 +7350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>90</v>
@@ -7390,11 +7396,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45103</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>5</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -7404,9 +7416,11 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7422,7 +7436,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7438,7 +7452,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7454,7 +7468,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7470,7 +7484,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7486,7 +7500,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7502,7 +7516,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7518,7 +7532,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7534,7 +7548,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7550,7 +7564,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7566,7 +7580,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7582,7 +7596,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7598,7 +7612,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7614,7 +7628,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7630,7 +7644,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7646,7 +7660,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7662,7 +7676,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7678,7 +7692,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7694,7 +7708,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7710,7 +7724,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7726,7 +7740,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7742,7 +7756,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7758,7 +7772,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7774,7 +7788,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7790,7 +7804,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7806,7 +7820,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7822,7 +7836,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7838,7 +7852,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7854,7 +7868,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7870,7 +7884,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7886,7 +7900,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7902,7 +7916,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7918,7 +7932,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7934,7 +7948,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7950,7 +7964,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7966,7 +7980,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7982,7 +7996,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7998,7 +8012,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8014,7 +8028,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8030,7 +8044,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8046,7 +8060,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8062,7 +8076,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8078,7 +8092,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8094,7 +8108,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8110,7 +8124,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8126,7 +8140,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8157,10 +8171,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8183,28 +8197,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8217,7 +8231,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8246,7 +8260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>117.875</v>
       </c>
@@ -8270,17 +8284,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8301,7 +8315,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8328,7 +8342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8354,7 +8368,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8380,7 +8394,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8406,7 +8420,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8432,7 +8446,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8458,7 +8472,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8484,7 +8498,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8510,7 +8524,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8530,7 +8544,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8550,7 +8564,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8570,7 +8584,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8591,7 +8605,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8612,7 +8626,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8633,7 +8647,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8654,7 +8668,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8675,7 +8689,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8696,7 +8710,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8717,7 +8731,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8738,7 +8752,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8759,7 +8773,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8780,7 +8794,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8801,7 +8815,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8822,7 +8836,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8843,7 +8857,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8864,7 +8878,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8885,7 +8899,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8906,7 +8920,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8927,7 +8941,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8948,7 +8962,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8969,7 +8983,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8990,7 +9004,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8999,7 +9013,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9008,7 +9022,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9017,7 +9031,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9026,7 +9040,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9035,7 +9049,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9044,7 +9058,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9053,7 +9067,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9062,7 +9076,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9071,7 +9085,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9080,7 +9094,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9089,7 +9103,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9098,7 +9112,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9107,7 +9121,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9116,7 +9130,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9125,7 +9139,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9134,7 +9148,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9143,7 +9157,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9152,7 +9166,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9161,7 +9175,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9170,7 +9184,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9179,7 +9193,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9188,7 +9202,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9197,7 +9211,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9206,7 +9220,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9215,7 +9229,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9224,7 +9238,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9233,7 +9247,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9242,7 +9256,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9251,7 +9265,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F070ED-364A-444B-9C26-6528D9C0E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE EARN'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,11 +317,14 @@
   <si>
     <t>7/4,6,8,12,13/2023</t>
   </si>
+  <si>
+    <t>7/19,20,22,26,27/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1254,7 +1256,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1299,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1363,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1423,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1489,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1552,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1650,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1709,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1774,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1817,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1892,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2078,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2144,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2202,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2268,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2324,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2399,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2442,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2508,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2564,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2658,25 +2660,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2688,25 +2690,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3013,7 +3015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3023,7 +3025,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3031,34 +3033,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A75" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3079,7 +3081,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3097,7 +3099,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3119,7 +3121,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3127,7 +3129,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3140,7 +3142,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3157,7 +3159,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3201,7 +3203,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3211,12 +3213,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3238,7 +3240,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3258,7 +3260,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3278,7 +3280,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3298,7 +3300,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3318,7 +3320,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3338,7 +3340,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3358,7 +3360,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3378,7 +3380,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3398,7 +3400,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3418,7 +3420,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3438,7 +3440,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3458,7 +3460,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3482,7 +3484,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3500,7 +3502,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3520,7 +3522,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3540,7 +3542,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3560,7 +3562,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3580,7 +3582,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3600,7 +3602,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3620,7 +3622,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3640,7 +3642,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3660,7 +3662,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3680,7 +3682,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3700,7 +3702,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3720,7 +3722,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3744,7 +3746,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -3762,7 +3764,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3782,7 +3784,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3802,7 +3804,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3822,7 +3824,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3842,7 +3844,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3862,7 +3864,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3882,7 +3884,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3902,7 +3904,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3922,7 +3924,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3942,7 +3944,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3962,7 +3964,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3982,7 +3984,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4006,7 +4008,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -4024,7 +4026,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4044,7 +4046,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4064,7 +4066,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4084,7 +4086,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4104,7 +4106,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4124,7 +4126,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4144,7 +4146,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4164,7 +4166,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4184,7 +4186,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4204,7 +4206,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4224,7 +4226,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4244,7 +4246,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4268,7 +4270,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>49</v>
       </c>
@@ -4286,7 +4288,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4306,7 +4308,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4326,7 +4328,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4346,7 +4348,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4366,7 +4368,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4386,7 +4388,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4406,7 +4408,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4426,7 +4428,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4446,7 +4448,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4466,7 +4468,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4486,7 +4488,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4506,7 +4508,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4530,7 +4532,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>78</v>
       </c>
@@ -4548,7 +4550,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4568,7 +4570,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4588,7 +4590,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4608,7 +4610,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4628,7 +4630,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4648,25 +4650,27 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4682,7 +4686,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4698,7 +4702,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4714,7 +4718,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4730,7 +4734,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4746,7 +4750,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4762,7 +4766,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4778,7 +4782,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4794,7 +4798,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4810,7 +4814,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4826,7 +4830,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4842,7 +4846,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4858,7 +4862,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4874,7 +4878,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4890,7 +4894,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4906,7 +4910,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4922,7 +4926,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4938,7 +4942,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4954,7 +4958,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4970,7 +4974,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4986,7 +4990,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5002,7 +5006,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5018,7 +5022,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5034,7 +5038,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5050,7 +5054,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5066,7 +5070,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5082,7 +5086,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5098,7 +5102,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5114,7 +5118,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5130,7 +5134,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5146,7 +5150,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5162,7 +5166,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5178,7 +5182,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5194,7 +5198,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5210,7 +5214,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5226,7 +5230,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5242,7 +5246,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5258,7 +5262,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5274,7 +5278,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5290,7 +5294,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5306,7 +5310,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5322,7 +5326,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5338,7 +5342,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5354,7 +5358,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5370,7 +5374,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5386,7 +5390,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5402,7 +5406,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5418,7 +5422,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5434,7 +5438,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5450,7 +5454,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5466,7 +5470,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5482,7 +5486,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5498,7 +5502,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5529,10 +5533,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5555,34 +5559,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A74" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5603,7 +5607,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5621,7 +5625,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5643,7 +5647,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5651,7 +5655,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5664,7 +5668,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -5681,7 +5685,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5725,7 +5729,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.875</v>
+        <v>39.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5735,12 +5739,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.25</v>
+        <v>43.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5762,7 +5766,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>54</v>
@@ -5830,7 +5834,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>54</v>
@@ -5898,7 +5902,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43221</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -5992,7 +5996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>56</v>
@@ -6014,7 +6018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>43379</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -6084,7 +6088,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>46</v>
       </c>
@@ -6102,7 +6106,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43466</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -6148,7 +6152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>52</v>
@@ -6192,7 +6196,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -6214,7 +6218,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>54</v>
@@ -6236,7 +6240,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43586</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>54</v>
@@ -6282,7 +6286,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43617</v>
       </c>
@@ -6306,7 +6310,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -6328,7 +6332,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43678</v>
       </c>
@@ -6352,7 +6356,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>54</v>
@@ -6374,7 +6378,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43709</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43739</v>
       </c>
@@ -6422,7 +6426,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>55</v>
@@ -6444,7 +6448,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43770</v>
       </c>
@@ -6466,7 +6470,7 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
@@ -6484,7 +6488,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44166</v>
       </c>
@@ -6554,7 +6558,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -6576,7 +6580,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>48</v>
       </c>
@@ -6594,7 +6598,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44197</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44228</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>54</v>
@@ -6662,7 +6666,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44287</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44470</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>49</v>
       </c>
@@ -6724,7 +6728,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44562</v>
       </c>
@@ -6746,7 +6750,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44593</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>55</v>
@@ -6792,7 +6796,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44805</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44835</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>56</v>
@@ -6862,7 +6866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>74</v>
@@ -6884,7 +6888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44866</v>
       </c>
@@ -6908,7 +6912,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>76</v>
@@ -6930,7 +6934,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>78</v>
       </c>
@@ -6948,7 +6952,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44927</v>
       </c>
@@ -6972,7 +6976,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -6992,7 +6996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44958</v>
       </c>
@@ -7016,7 +7020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44986</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>55</v>
@@ -7062,7 +7066,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>76</v>
@@ -7084,7 +7088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45017</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>51</v>
@@ -7128,7 +7132,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>54</v>
@@ -7150,7 +7154,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>54</v>
@@ -7172,7 +7176,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>56</v>
@@ -7194,7 +7198,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>55</v>
@@ -7216,7 +7220,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -7238,7 +7242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45047</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>85</v>
@@ -7284,7 +7288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>56</v>
@@ -7306,7 +7310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>54</v>
@@ -7328,7 +7332,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>88</v>
@@ -7350,7 +7354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -7374,7 +7378,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>90</v>
@@ -7396,7 +7400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45103</v>
       </c>
@@ -7420,11 +7424,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="D85" s="39">
+        <v>5</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -7434,11 +7444,15 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -7447,12 +7461,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="49">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7468,7 +7486,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7484,7 +7502,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7500,7 +7518,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7516,7 +7534,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7532,7 +7550,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7548,7 +7566,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7564,7 +7582,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7580,7 +7598,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7596,7 +7614,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7612,7 +7630,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7628,7 +7646,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7644,7 +7662,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7660,7 +7678,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7676,7 +7694,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7692,7 +7710,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7708,7 +7726,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7724,7 +7742,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7740,7 +7758,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7756,7 +7774,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7772,7 +7790,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7788,7 +7806,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7804,7 +7822,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7820,7 +7838,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7836,7 +7854,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7852,7 +7870,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7868,7 +7886,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7884,7 +7902,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7900,7 +7918,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7916,7 +7934,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7932,7 +7950,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7948,7 +7966,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7964,7 +7982,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7980,7 +7998,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7996,7 +8014,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8012,7 +8030,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8028,7 +8046,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8044,7 +8062,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8060,7 +8078,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8076,7 +8094,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8092,7 +8110,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8108,7 +8126,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8124,7 +8142,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8140,7 +8158,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8171,10 +8189,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8197,28 +8215,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8231,7 +8249,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8260,7 +8278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>117.875</v>
       </c>
@@ -8284,17 +8302,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8315,7 +8333,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8342,7 +8360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8368,7 +8386,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8394,7 +8412,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8420,7 +8438,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8446,7 +8464,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8472,7 +8490,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8498,7 +8516,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8524,7 +8542,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8544,7 +8562,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8564,7 +8582,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8584,7 +8602,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8626,7 +8644,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8647,7 +8665,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8668,7 +8686,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8689,7 +8707,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8710,7 +8728,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8731,7 +8749,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8752,7 +8770,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8773,7 +8791,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8794,7 +8812,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8815,7 +8833,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8836,7 +8854,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8857,7 +8875,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8878,7 +8896,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8899,7 +8917,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8920,7 +8938,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8941,7 +8959,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8962,7 +8980,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8983,7 +9001,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9004,7 +9022,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9013,7 +9031,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9022,7 +9040,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9031,7 +9049,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9040,7 +9058,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9049,7 +9067,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9058,7 +9076,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9067,7 +9085,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9076,7 +9094,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9085,7 +9103,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9094,7 +9112,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9103,7 +9121,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9112,7 +9130,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9121,7 +9139,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9130,7 +9148,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9139,7 +9157,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9148,7 +9166,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9157,7 +9175,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9166,7 +9184,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9175,7 +9193,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9184,7 +9202,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9193,7 +9211,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9202,7 +9220,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9211,7 +9229,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9220,7 +9238,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9229,7 +9247,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9238,7 +9256,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9247,7 +9265,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9256,7 +9274,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9265,7 +9283,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
+++ b/NEW HR/MARDO, MELINDA ESPIRITU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>7/19,20,22,26,27/2023</t>
+  </si>
+  <si>
+    <t>8/9,10,12/2023</t>
+  </si>
+  <si>
+    <t>8/2,3/2023</t>
   </si>
 </sst>
 </file>
@@ -3039,10 +3045,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,7 +3209,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3213,7 +3219,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4671,15 +4677,19 @@
       <c r="K81" s="49"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4687,7 +4697,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -5565,10 +5577,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+      <selection activeCell="F3" sqref="B3:K8"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5729,7 +5741,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.875</v>
+        <v>36.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5739,7 +5751,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.25</v>
+        <v>41.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7471,10 +7483,16 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>3</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -7484,11 +7502,15 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -7497,10 +7519,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>2</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
@@ -8188,7 +8214,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
